--- a/data/trans_camb/P29A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.03751415755506304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-9.435106018542106</v>
+        <v>-9.435106018542083</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.199251113279002</v>
@@ -655,7 +655,7 @@
         <v>2.472743779765893</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.07887365407782676</v>
+        <v>-0.07887365407782398</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.216658295184527</v>
@@ -664,7 +664,7 @@
         <v>0.8885549597017262</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.180428782536972</v>
+        <v>-5.180428782536961</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.254747280718833</v>
+        <v>-9.055733379962422</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.548743115877071</v>
+        <v>-4.771161486821793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.55554575403987</v>
+        <v>-14.930187499651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.679170525891492</v>
+        <v>-6.755551182438163</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.111978520897363</v>
+        <v>-1.837841719409632</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.547687132215426</v>
+        <v>-4.277011772420295</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.957174702992207</v>
+        <v>-6.889457848394202</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.109106895986903</v>
+        <v>-2.911685128131061</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.805222429267252</v>
+        <v>-9.022098128139945</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.855834743770987</v>
+        <v>1.535449901172101</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.193514964027202</v>
+        <v>5.605932138400992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.785705229114146</v>
+        <v>-3.904607814218479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.360516313596293</v>
+        <v>2.352781336658003</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.876528079592075</v>
+        <v>7.322978613349501</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.154967729141921</v>
+        <v>4.204447198083196</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5324811932135082</v>
+        <v>0.4689484095353579</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.779205652153379</v>
+        <v>5.123001403709785</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.140269252988174</v>
+        <v>-1.592321271443617</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.0006171675601132355</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1552225010604679</v>
+        <v>-0.1552225010604676</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.09293287587852209</v>
@@ -760,7 +760,7 @@
         <v>0.104489746249008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.003332932496995066</v>
+        <v>-0.003332932496994948</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.07618355303223137</v>
@@ -769,7 +769,7 @@
         <v>0.02104459587635664</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1226936263248512</v>
+        <v>-0.1226936263248509</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1445260435254486</v>
+        <v>-0.1423557706617173</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08643067092377683</v>
+        <v>-0.07588396670731012</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2349059549981481</v>
+        <v>-0.2340868859690495</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2620221619752726</v>
+        <v>-0.2650851573580289</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08007353795620283</v>
+        <v>-0.06985076670418688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1707457517833072</v>
+        <v>-0.1635727399009967</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1568050628031163</v>
+        <v>-0.1543883169971987</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07004349648097867</v>
+        <v>-0.06574300513891473</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1971521467850647</v>
+        <v>-0.2024914373271569</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03249584619484235</v>
+        <v>0.02921805804523113</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.08840669255073164</v>
+        <v>0.09777691861225007</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06625460229142181</v>
+        <v>-0.06790250877613231</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1071832222541842</v>
+        <v>0.1132205145636352</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3172081903531109</v>
+        <v>0.3483774899414629</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.196663835266502</v>
+        <v>0.1993151085094434</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01337461985792303</v>
+        <v>0.01127685963182967</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1164785653187993</v>
+        <v>0.1291370430096913</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.0273382694647515</v>
+        <v>-0.03735005930929738</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.011687134434641</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.946349084342103</v>
+        <v>-7.946349084342097</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.198694134720343</v>
+        <v>-7.702755308773042</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.020390040677226</v>
+        <v>-8.744636162658272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.44322053665722</v>
+        <v>-15.21776189015316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.568003110889739</v>
+        <v>-5.662597189378522</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.719949321494717</v>
+        <v>-1.548190364762421</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.720812828365531</v>
+        <v>-9.358612956634129</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.949142499620656</v>
+        <v>-5.84992278652743</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.125074452962378</v>
+        <v>-4.329767476467569</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.1400899742056</v>
+        <v>-11.13339256877613</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.179050192954196</v>
+        <v>1.551433487070943</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1548517184683857</v>
+        <v>0.6528616822783152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.857180962300039</v>
+        <v>-5.551453085666178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.719401972659811</v>
+        <v>2.37935931099569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.577147820371622</v>
+        <v>6.837241616346571</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.702049365677964</v>
+        <v>-1.902067019556499</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7494387704573955</v>
+        <v>0.4115075131595871</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.054221548783869</v>
+        <v>2.151415218938286</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.411142861926278</v>
+        <v>-4.906233528986269</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.02396813562455552</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1882589647440836</v>
+        <v>-0.1882589647440835</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1335070583514324</v>
+        <v>-0.1272393229182187</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1503907168271449</v>
+        <v>-0.1453451375460466</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2549403138455702</v>
+        <v>-0.2530705930466785</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1989614565572862</v>
+        <v>-0.2092560875013619</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05639575195129892</v>
+        <v>-0.054314035041235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3126683012663209</v>
+        <v>-0.3255877875340289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1355315070466712</v>
+        <v>-0.1326337081408475</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09364088518142084</v>
+        <v>-0.09900888826844524</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2548196828199238</v>
+        <v>-0.2527419182056732</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02188535482521233</v>
+        <v>0.02779397804032015</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.003606758332900699</v>
+        <v>0.01126858094027043</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1052576430374494</v>
+        <v>-0.09814348245924043</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1093359260606387</v>
+        <v>0.09808005343648182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2799096648123702</v>
+        <v>0.2925151991176395</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07254167101879076</v>
+        <v>-0.07973223867171048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0181807869133484</v>
+        <v>0.01039983480919266</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05008154192709181</v>
+        <v>0.05372457993409895</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1074753659650507</v>
+        <v>-0.1207089357482437</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>9.002382413313425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4168023177167357</v>
+        <v>-0.4168023177167413</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.718265945703976</v>
@@ -1083,7 +1083,7 @@
         <v>10.09101653868363</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.912692126611744</v>
+        <v>6.912692126611736</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.784958653799262</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.077045661631713</v>
+        <v>4.848794029426355</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.396575586571747</v>
+        <v>3.653873818165771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.293361978912331</v>
+        <v>-6.220333804679176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9456950264055887</v>
+        <v>1.5968131377754</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.845722971298068</v>
+        <v>5.728878550353867</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.649036266201557</v>
+        <v>3.058785835986168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.341602807241161</v>
+        <v>4.124710644045718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.597117378301522</v>
+        <v>5.629991067195275</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7227348209247845</v>
+        <v>-0.2652011323766742</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.71278962698749</v>
+        <v>15.7287412852375</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.94232905301604</v>
+        <v>14.35267907129724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.942256567229828</v>
+        <v>5.501304795802505</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.14097912052955</v>
+        <v>10.16367793053141</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.43901804276198</v>
+        <v>14.19097018537085</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.80340360444645</v>
+        <v>11.18057943650302</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.6131430356586</v>
+        <v>11.59312444714668</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.18153713935696</v>
+        <v>13.14873279179673</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.837772931627095</v>
+        <v>6.844305532550307</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.197406163382679</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.009139730201617307</v>
+        <v>-0.009139730201617428</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.318926104438354</v>
@@ -1188,7 +1188,7 @@
         <v>0.5628084851358147</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3855430985643937</v>
+        <v>0.3855430985643933</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2461074424496983</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1016599858765178</v>
+        <v>0.09861035093355379</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07110054665858519</v>
+        <v>0.07900022401347701</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1333439325701748</v>
+        <v>-0.1291876960584292</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04140126479691809</v>
+        <v>0.07652873386306651</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2961779344331066</v>
+        <v>0.2724471612610896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1280390974900997</v>
+        <v>0.1503319002430142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1302188869944532</v>
+        <v>0.1212683007252918</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1654509372949763</v>
+        <v>0.1695310518980257</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0203525731942435</v>
+        <v>-0.008130229418618552</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3636455339619618</v>
+        <v>0.3718366803889093</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3277810865635511</v>
+        <v>0.3431826875992405</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.111184352760649</v>
+        <v>0.1286478596344113</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6174429218473183</v>
+        <v>0.6276581558845022</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8819779887479418</v>
+        <v>0.8720453509306259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6791657497703601</v>
+        <v>0.7318431592125574</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3880482083650214</v>
+        <v>0.3863008229955954</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4380213262967286</v>
+        <v>0.4383614250190848</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2316858911478693</v>
+        <v>0.2288019952049017</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.25995028375238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.560294486169049</v>
+        <v>-6.560294486169055</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.083386271035027</v>
@@ -1306,7 +1306,7 @@
         <v>8.061584039894138</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.25093802423278</v>
+        <v>-3.250938024232791</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.80827866747346</v>
+        <v>-1.756519904765605</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.108419901157335</v>
+        <v>2.078769914122278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.43959898376922</v>
+        <v>-10.95937816626874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.055068100866621</v>
+        <v>-0.8319458340252562</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.785254959718262</v>
+        <v>5.424372549061274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.733498456531668</v>
+        <v>-3.629741507080029</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6221769074436663</v>
+        <v>-0.145389808986454</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.886401935179991</v>
+        <v>4.629634240877925</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.178891349457919</v>
+        <v>-5.983203321251287</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.168056533356401</v>
+        <v>7.714820981786754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.85728144041749</v>
+        <v>11.24752988715639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.043627695580373</v>
+        <v>-1.790858971251981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.241910116388091</v>
+        <v>7.143846302751229</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.08967218507876</v>
+        <v>14.0801450877548</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.817672543923416</v>
+        <v>3.755541780495393</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.876358996215233</v>
+        <v>6.060594347439523</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.97188199405047</v>
+        <v>11.04141129327168</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.1981787700526726</v>
+        <v>-0.1166480662976372</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1166893133739084</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1222879135491844</v>
+        <v>-0.1222879135491845</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.110220051646234</v>
@@ -1411,7 +1411,7 @@
         <v>0.2008406060398596</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.08099157184913613</v>
+        <v>-0.08099157184913641</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03100849439870603</v>
+        <v>-0.03232040775094902</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03601459813870172</v>
+        <v>0.03651586789461381</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2071653218095622</v>
+        <v>-0.1970432164014385</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03534311792591196</v>
+        <v>-0.02730897068052924</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.19633845814489</v>
+        <v>0.1783147575525274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1220617459991251</v>
+        <v>-0.1200271038070883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0147115493870438</v>
+        <v>-0.003735675040307519</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1180491115142991</v>
+        <v>0.1095668019569416</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1458923384450361</v>
+        <v>-0.146273518407292</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1419917336187825</v>
+        <v>0.153056094475035</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2108904517474646</v>
+        <v>0.2190723373614954</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04039176517914765</v>
+        <v>-0.03451989064288948</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2822484541243493</v>
+        <v>0.2755858143565702</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5392881066243971</v>
+        <v>0.5333723777536619</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1476385716520854</v>
+        <v>0.143692986823388</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1524235406971391</v>
+        <v>0.1570389836572151</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2846868930609811</v>
+        <v>0.2845015312341885</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.003926836807358484</v>
+        <v>-0.006061977426889795</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.181697820725037</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-7.212276983101196</v>
+        <v>-7.212276983101207</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.152863156805375</v>
@@ -1520,7 +1520,7 @@
         <v>4.102693030589244</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.713390896373342</v>
+        <v>-3.713390896373336</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.635939550837851</v>
+        <v>-1.318963248432894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2656759675500467</v>
+        <v>-0.4475348782821791</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.823712161236656</v>
+        <v>-9.547804162953275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.260696664111792</v>
+        <v>-0.9279887450033883</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.882176850751506</v>
+        <v>3.747537716090641</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.261189883604874</v>
+        <v>-1.94961598586505</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5998952537085891</v>
+        <v>-0.6012386508094126</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.259000483613042</v>
+        <v>2.335161614382543</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.412959123437975</v>
+        <v>-5.41014774880284</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.538653051190355</v>
+        <v>3.639865887702957</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.740221218764538</v>
+        <v>4.608315538128347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.621944554549917</v>
+        <v>-4.765159352604782</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.224727851854815</v>
+        <v>3.322503323733832</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.361956173368126</v>
+        <v>8.345723685090272</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.742957130661353</v>
+        <v>1.692026684837511</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.801222258695829</v>
+        <v>2.671513015318471</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.686472576833699</v>
+        <v>5.765288407834209</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.075853540650339</v>
+        <v>-2.029175116713983</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.03970826081375897</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1312679385685405</v>
+        <v>-0.1312679385685407</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.04702211539720091</v>
@@ -1625,7 +1625,7 @@
         <v>0.1040349649615507</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.09416314818397636</v>
+        <v>-0.09416314818397623</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02865585968675241</v>
+        <v>-0.02344427242641367</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.004090615217815327</v>
+        <v>-0.007964718710103902</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1747986943437874</v>
+        <v>-0.170353072008405</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04801771314206593</v>
+        <v>-0.03651780571483013</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1552429268281635</v>
+        <v>0.1500323635506371</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08779997097245151</v>
+        <v>-0.07709848085487012</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01511850060515179</v>
+        <v>-0.01487447745023573</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05549956954241884</v>
+        <v>0.05894914033410763</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1339627208016926</v>
+        <v>-0.1344275550855366</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06610239954417244</v>
+        <v>0.06756457981955823</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08890683483488981</v>
+        <v>0.08603484144490868</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08703717374181121</v>
+        <v>-0.08790429114205421</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1386244305947751</v>
+        <v>0.1419462274288507</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3584731600243353</v>
+        <v>0.3587279046897107</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07348515906489259</v>
+        <v>0.0716322798962274</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0729493799466598</v>
+        <v>0.06933252158550607</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1465657645824953</v>
+        <v>0.1500003987258487</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05361401984483437</v>
+        <v>-0.05243722054222952</v>
       </c>
     </row>
     <row r="34">
